--- a/Docs/Instruction List.xlsx
+++ b/Docs/Instruction List.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Instruction List.xlsx
+++ b/Docs/Instruction List.xlsx
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +133,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -174,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -183,6 +191,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,13 +532,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -535,55 +546,55 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -597,7 +608,7 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2"/>
@@ -607,7 +618,7 @@
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="3"/>
@@ -617,7 +628,7 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3"/>
